--- a/RUDN/Importance/Varible_muatal_reg_in_Eastern Asia.xlsx
+++ b/RUDN/Importance/Varible_muatal_reg_in_Eastern Asia.xlsx
@@ -40,15 +40,15 @@
     <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
     <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
@@ -130,15 +130,15 @@
     <t>Female population 75-79</t>
   </si>
   <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
     <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
     <t>Female population 70-74</t>
   </si>
   <si>
@@ -172,30 +172,30 @@
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
     <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
     <t>Male population 65-69</t>
   </si>
   <si>
@@ -331,33 +331,33 @@
     <t>Urban population</t>
   </si>
   <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, male (% of male adults)</t>
   </si>
   <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
   </si>
   <si>
     <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
@@ -397,18 +397,21 @@
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
     <t>Population ages 15-64, total</t>
   </si>
   <si>
@@ -430,9 +433,6 @@
     <t>Age population, age 10, female, interpolated</t>
   </si>
   <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
@@ -577,12 +577,12 @@
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
     <t>Expected years of schooling, male</t>
   </si>
   <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
     <t>Female population 15-19</t>
   </si>
   <si>
@@ -601,24 +601,30 @@
     <t>Country_code</t>
   </si>
   <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Age population, age 23, female, interpolated</t>
   </si>
   <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
     <t>Male population 15-19</t>
   </si>
   <si>
@@ -634,15 +640,9 @@
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
@@ -664,18 +664,18 @@
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary (% gross)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
@@ -718,30 +718,30 @@
     <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
     <t>Expected years of schooling, female</t>
   </si>
   <si>
-    <t>Age population, age 19, male, interpolated</t>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
     <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
     <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
@@ -754,31 +754,34 @@
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
     <t>GDP (current US$)</t>
   </si>
   <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
     <t>Age population, age 20, male, interpolated</t>
   </si>
   <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+    <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
     <t>Number of people who are undernourished</t>
@@ -829,15 +832,12 @@
     <t>Own-account workers, male (% of males employed)</t>
   </si>
   <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
     <t>Vulnerable employment, total (% of total employment)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
     <t>Vulnerable employment, female (% of female employment)</t>
   </si>
   <si>
@@ -874,15 +874,15 @@
     <t>Reported cases of malaria</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
+  </si>
+  <si>
     <t>Total bilateral ODA commitments (current US$)</t>
   </si>
   <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Total bilateral sector allocable ODA commitments (current US$)</t>
-  </si>
-  <si>
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
@@ -1018,165 +1018,165 @@
     <t>Prevalence of HIV, female (% ages 15-24)</t>
   </si>
   <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Pregnant women receiving prenatal care (%)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Community health workers (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Low-birthweight babies (% of births)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
     <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
   </si>
   <si>
-    <t>Low-birthweight babies (% of births)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Pregnant women receiving prenatal care (%)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Community health workers (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
     <t>Net ODA provided, total (% of GNI)</t>
   </si>
   <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
     <t>Employment in industry, female (% of female employment)</t>
   </si>
   <si>
     <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
   </si>
   <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
     <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
@@ -1201,24 +1201,27 @@
     <t>Gross graduation ratio, primary, male (%)</t>
   </si>
   <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Primary completion rate, female (% of relevant age group)</t>
   </si>
   <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
@@ -1234,9 +1237,6 @@
     <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
   </si>
   <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
@@ -1267,21 +1267,21 @@
     <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
   </si>
   <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
     <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
   </si>
   <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
     <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
   </si>
   <si>
@@ -1294,16 +1294,16 @@
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
@@ -1740,7 +1740,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.784524094917432</v>
+        <v>1.775977086370423</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1756,7 +1756,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.743558294336247</v>
+        <v>1.734157794551132</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1764,7 +1764,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.734157794551132</v>
+        <v>1.731359666753003</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1772,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.731359666753003</v>
+        <v>1.728601029378982</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1996,7 +1996,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.550072435465772</v>
+        <v>1.542023077416414</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2004,7 +2004,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.542023077416414</v>
+        <v>1.539853950247287</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2012,7 +2012,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.539853950247287</v>
+        <v>1.539744800138137</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2052,7 +2052,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.50763310841106</v>
+        <v>1.508915159693112</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2108,7 +2108,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.481025446339598</v>
+        <v>1.478595753525289</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2116,7 +2116,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.478595753525289</v>
+        <v>1.471205006598344</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2124,7 +2124,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.47347558878974</v>
+        <v>1.470773031166368</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2132,7 +2132,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.471205006598344</v>
+        <v>1.469319854713192</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2140,7 +2140,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.470773031166368</v>
+        <v>1.46252884322761</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2148,7 +2148,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.469319854713192</v>
+        <v>1.461601646994984</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2156,7 +2156,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.461601646994984</v>
+        <v>1.461233496626834</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2164,7 +2164,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.461233496626834</v>
+        <v>1.447335987650139</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2532,7 +2532,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.322796363958931</v>
+        <v>1.320590472348032</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2540,7 +2540,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.320590472348032</v>
+        <v>1.319039579432916</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2548,7 +2548,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.319039579432916</v>
+        <v>1.317460285304801</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2556,7 +2556,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.317460285304801</v>
+        <v>1.316386107548675</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2564,7 +2564,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.314636575029912</v>
+        <v>1.312846876124828</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2572,7 +2572,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.312846876124828</v>
+        <v>1.312086987864941</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2580,7 +2580,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.312086987864941</v>
+        <v>1.310572143098933</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2588,7 +2588,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.310572143098933</v>
+        <v>1.308634244027581</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2596,7 +2596,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.308634244027581</v>
+        <v>1.306018341411678</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2708,7 +2708,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.284673611431171</v>
+        <v>1.285312546298287</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2716,7 +2716,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.284216161068386</v>
+        <v>1.284673611431171</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2732,7 +2732,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.276266682813866</v>
+        <v>1.277457159004342</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2740,7 +2740,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.273450575208135</v>
+        <v>1.277093653945879</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2748,7 +2748,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.271710648468208</v>
+        <v>1.273450575208135</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2756,7 +2756,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.269787571545131</v>
+        <v>1.271710648468208</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2764,7 +2764,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.267600918378871</v>
+        <v>1.269787571545131</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2772,7 +2772,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.266296618054177</v>
+        <v>1.267600918378871</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2780,7 +2780,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.265391967149526</v>
+        <v>1.266296618054177</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2788,7 +2788,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.2636113403689</v>
+        <v>1.265391967149526</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2796,7 +2796,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.263364124349865</v>
+        <v>1.2636113403689</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3068,7 +3068,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.208241473412734</v>
+        <v>1.206409971581232</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3076,7 +3076,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1.208241473412734</v>
+        <v>1.206409971581232</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3172,7 +3172,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1.149354350132303</v>
+        <v>1.148499649277602</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3180,7 +3180,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1.146566753113936</v>
+        <v>1.143025849573032</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3188,7 +3188,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1.146127021904975</v>
+        <v>1.143025849573032</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3196,7 +3196,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.143025849573032</v>
+        <v>1.142921893699846</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3252,7 +3252,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.12303743343077</v>
+        <v>1.122188873946434</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3260,7 +3260,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.122188873946434</v>
+        <v>1.120898266615102</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3268,7 +3268,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.120898266615102</v>
+        <v>1.119127258972509</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3276,7 +3276,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.119127258972509</v>
+        <v>1.117909228302565</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3300,7 +3300,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.110101675224192</v>
+        <v>1.111021671415008</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3308,7 +3308,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.108912885411248</v>
+        <v>1.110768364278721</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3316,7 +3316,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.108912885411248</v>
+        <v>1.110101675224192</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3324,7 +3324,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1.108475688320939</v>
+        <v>1.108912885411248</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3332,7 +3332,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1.107433787556304</v>
+        <v>1.108912885411248</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3340,7 +3340,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1.105893466286803</v>
+        <v>1.108475688320939</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3348,7 +3348,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.10571203985495</v>
+        <v>1.107433787556304</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3356,7 +3356,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.102221355731713</v>
+        <v>1.10571203985495</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3420,7 +3420,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1.058523282137028</v>
+        <v>1.05781966351843</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3428,7 +3428,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1.05781966351843</v>
+        <v>1.05406980811681</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3436,7 +3436,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1.05406980811681</v>
+        <v>1.050846661239997</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3444,7 +3444,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1.050846661239997</v>
+        <v>1.047737771351517</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3564,7 +3564,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>1.003903860451044</v>
+        <v>0.9933180922075771</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3572,7 +3572,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.9939260680071877</v>
+        <v>0.9917955983427809</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3580,7 +3580,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.9933180922075771</v>
+        <v>0.9875158115969314</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3588,7 +3588,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.9863823772965172</v>
+        <v>0.9856683922155756</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3596,7 +3596,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.9737871111035248</v>
+        <v>0.9781057411521354</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3604,7 +3604,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.9655282759216122</v>
+        <v>0.976125967040107</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3612,7 +3612,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.9645190314020085</v>
+        <v>0.9655282759216122</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3620,7 +3620,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.9577150207614151</v>
+        <v>0.9645190314020085</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3660,7 +3660,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.9254193174481882</v>
+        <v>0.9259710964442136</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3668,7 +3668,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.92230809278121</v>
+        <v>0.9254193174481882</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3684,7 +3684,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.9157859998800879</v>
+        <v>0.9193166397897574</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3692,7 +3692,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.9150431355162527</v>
+        <v>0.9157859998800879</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3716,7 +3716,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.8813657922289084</v>
+        <v>0.8599982708613871</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3724,7 +3724,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.8813657922289084</v>
+        <v>0.8599982708613871</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3732,7 +3732,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.85145126231438</v>
+        <v>0.8548589797325947</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3740,7 +3740,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.8488362901300484</v>
+        <v>0.85145126231438</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3748,7 +3748,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.8406815414594941</v>
+        <v>0.8488362901300484</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3756,7 +3756,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.8285602726373543</v>
+        <v>0.8406815414594941</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3764,7 +3764,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.8251506509137185</v>
+        <v>0.8285602726373543</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3772,7 +3772,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.8123393515964453</v>
+        <v>0.8251506509137185</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3780,7 +3780,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.8109777244167663</v>
+        <v>0.8123393515964453</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3788,7 +3788,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.809918064416562</v>
+        <v>0.8109777244167663</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3796,7 +3796,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.8020704627972118</v>
+        <v>0.809918064416562</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3804,7 +3804,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.8017809833281671</v>
+        <v>0.8020704627972118</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3812,7 +3812,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.7992873838323047</v>
+        <v>0.8017809833281671</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3820,7 +3820,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.7937328035365334</v>
+        <v>0.7992873838323047</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3828,7 +3828,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.7921805794761548</v>
+        <v>0.7937328035365334</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3836,7 +3836,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.7907969159847953</v>
+        <v>0.7921805794761548</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3844,7 +3844,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.7882314857378258</v>
+        <v>0.7907969159847953</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3852,7 +3852,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.7854574566480071</v>
+        <v>0.7882314857378258</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3860,7 +3860,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.780922095494999</v>
+        <v>0.7854574566480071</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3868,7 +3868,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.7806523534176837</v>
+        <v>0.7838574816228119</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3876,7 +3876,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.7804154389428999</v>
+        <v>0.780922095494999</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3980,7 +3980,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.7057719416350592</v>
+        <v>0.704353413849616</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -3988,7 +3988,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.704353413849616</v>
+        <v>0.6986068844700024</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -3996,7 +3996,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.6986068844700024</v>
+        <v>0.6972249330880507</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4772,7 +4772,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.637187743892178</v>
+        <v>0.6391157828966589</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4780,7 +4780,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.6330616518425276</v>
+        <v>0.637187743892178</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4876,7 +4876,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.5250691300401873</v>
+        <v>0.5345266544414138</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4884,7 +4884,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.5247645474681737</v>
+        <v>0.5250691300401873</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4900,7 +4900,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.5216132196919598</v>
+        <v>0.5247645474681737</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4908,7 +4908,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.5192724970277314</v>
+        <v>0.5216132196919598</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -4924,7 +4924,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.506798404877145</v>
+        <v>0.5192724970277314</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -4940,7 +4940,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.5067497687310911</v>
+        <v>0.506798404877145</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5084,7 +5084,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.432941723806213</v>
+        <v>0.4315172223817114</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5100,7 +5100,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.3991971439987805</v>
+        <v>0.3927125550142914</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5108,7 +5108,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.3927125550142914</v>
+        <v>0.3754890718256969</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5116,7 +5116,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.3754890718256969</v>
+        <v>0.33326164083829</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5124,7 +5124,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.33326164083829</v>
+        <v>0.319683114371629</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5140,7 +5140,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.1896625232650651</v>
+        <v>0.2020019697376385</v>
       </c>
     </row>
     <row r="434" spans="1:2">
